--- a/similarities/split_global/harmonic_similarity_timestamps_199.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_199.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'F:7/D#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Bb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:01:08.340000', '0:01:12.820000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:28.520000', '0:00:31.040000'), ('0:00:07.400000', '0:00:12.020000'), ('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:23.428956', '0:00:30.731632')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=68.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=28.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'A:min7/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['F', 'C/3', 'D:min7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:01:12.260000', '0:01:15.560000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:01:03.837000', '0:01:05.890000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=72.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=63.837</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:7', 'C', 'Eb:dim7']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:7', 'Bb', 'Bb:dim7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:09.730000', '0:00:13.170000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:40.460000', '0:00:43.620000')]</t>
+          <t>('0:00:01.760000', '0:00:03.130000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=9.73</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.46']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=1.76</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:00:52.740000', '0:01:00.860000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_115</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:min', 'F']]</t>
+          <t>['E', 'B', 'E', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:11.700000')]</t>
+          <t>('0:00:08.359000', '0:00:15.006000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:39.610440', '0:00:45.427039')]</t>
+          <t>('0:00:04.103323', '0:00:17.106498')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=5.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-115#t=39.61044']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:19.400000', '0:00:44.180000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:00:11.360000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=11.36</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000')]</t>
+          <t>('0:00:23.020000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=23.02</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:22.040000', '0:00:28.660000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:12.620000', '0:00:18.800000')]</t>
+          <t>('0:01:10.060000', '0:01:20.280000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=12.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:53', '0:01:02')]</t>
+          <t>('0:00:13.390000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.840000', '0:00:26.340000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=53.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=6.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'B:min', 'C#:min']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'B:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:23.089000', '0:00:32.130000')]</t>
+          <t>('0:03:47.460000', '0:04:01.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:54.230226', '0:00:58.990317')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=23.089']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=227.46</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=54.230226']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:31.180000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=76.56']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'F:7', 'Bb:7', 'Eb:7', 'Bb:7']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'D:7', 'G:7', 'C:7', 'G:7']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.230000', '0:00:28.590000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:26.233310', '0:00:44.890544')]</t>
+          <t>('0:01:14.500000', '0:01:20.420000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=22.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=26.23331']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C', 'D:7/C']]</t>
+          <t>['Ab:7', 'Db', 'Ab:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'D:7']]</t>
+          <t>['D:7', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:32')]</t>
+          <t>('0:01:19.820000', '0:01:25.660000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:21.170000', '0:00:27.940000')]</t>
+          <t>('0:00:18.076336', '0:00:30.797732')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=79.82</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=18.076336</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:19.880000')]</t>
+          <t>('0:00:00.939000', '0:00:04.875000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=24.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
